--- a/data/Datasets.xlsx
+++ b/data/Datasets.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Vis2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9007D23-7156-4E3F-BD9A-D6B401E3C944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50470A83-9CFD-4FE7-92ED-935EF5E4EAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1DA20B10-4937-4A5C-AB05-3C0D0FC15D93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DA20B10-4937-4A5C-AB05-3C0D0FC15D93}"/>
   </bookViews>
   <sheets>
-    <sheet name="Debug" sheetId="1" r:id="rId1"/>
-    <sheet name="Cube" sheetId="3" r:id="rId2"/>
-    <sheet name="ColToIntConverter" sheetId="2" r:id="rId3"/>
+    <sheet name="Cube" sheetId="3" r:id="rId1"/>
+    <sheet name="ColToIntConverter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>A.x</t>
   </si>
@@ -432,11 +431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8130F68-E090-4F09-8CE9-E1CE3F5F6B52}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79CA0B-0322-4848-BAE3-AA3A11D61E5F}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -487,22 +486,374 @@
         <v>2021161215</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2021161215</v>
+        <v>4278190335</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4278190335</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2021161215</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2021161215</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2021161215</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2021161215</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2021161215</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2021161215</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2021161215</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2021161215</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2021161215</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4278190335</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2021161215</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2021161215</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2021161215</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2021161215</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2021161215</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2021161215</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2021161215</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2021161215</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2021161215</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2021161215</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2021161215</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -511,437 +862,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79CA0B-0322-4848-BAE3-AA3A11D61E5F}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2021161215</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2021161215</v>
-      </c>
-      <c r="J2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2021161215</v>
-      </c>
-      <c r="E3">
-        <v>0.2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2021161215</v>
-      </c>
-      <c r="J3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2021161215</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2021161215</v>
-      </c>
-      <c r="J4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2021161215</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>2021161215</v>
-      </c>
-      <c r="J5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2021161215</v>
-      </c>
-      <c r="E6">
-        <v>0.2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2021161215</v>
-      </c>
-      <c r="J6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2021161215</v>
-      </c>
-      <c r="E7">
-        <v>0.2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>2021161215</v>
-      </c>
-      <c r="J7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2021161215</v>
-      </c>
-      <c r="E8">
-        <v>0.2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>2021161215</v>
-      </c>
-      <c r="J8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2021161215</v>
-      </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>2021161215</v>
-      </c>
-      <c r="J9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>2021161215</v>
-      </c>
-      <c r="E10">
-        <v>0.2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>2021161215</v>
-      </c>
-      <c r="J10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>2021161215</v>
-      </c>
-      <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>2021161215</v>
-      </c>
-      <c r="J11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2021161215</v>
-      </c>
-      <c r="E12">
-        <v>0.2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>2021161215</v>
-      </c>
-      <c r="J12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2021161215</v>
-      </c>
-      <c r="E13">
-        <v>0.2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>2021161215</v>
-      </c>
-      <c r="J13">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4BABD5-B418-4D5D-810D-8B792AF6E87E}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -959,11 +879,11 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX(B1,2)</f>
-        <v>78</v>
+        <v>FF</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,11 +891,11 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C4" si="0">DEC2HEX(B2,2)</f>
-        <v>78</v>
+        <v>00</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -983,11 +903,11 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>00</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,11 +928,11 @@
       </c>
       <c r="B8">
         <f>HEX2DEC(C8)</f>
-        <v>2021161215</v>
+        <v>4278190335</v>
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE(C1,C2,C3,C4)</f>
-        <v>787878FF</v>
+        <v>FF0000FF</v>
       </c>
     </row>
   </sheetData>
